--- a/assets/data/20250509_trend_summary_en.xlsx
+++ b/assets/data/20250509_trend_summary_en.xlsx
@@ -492,54 +492,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology innovation policy </t>
+          <t xml:space="preserve"> Artificial Intelligence </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87 </t>
+          <t xml:space="preserve"> 37 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announces new funding initiative for small tech enterprises as part of its innovation-driven development strategy </t>
+          <t xml:space="preserve"> China unveils new AI governance framework with focus on advanced model regulation </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202505/t20250504_189632.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3259421/china-unveils-new-ai-governance-framework-emphasizing-advanced-model-safety </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology announced a new 50 billion yuan funding program to support small and medium-sized technology enterprises. The initiative aims to address financing difficulties for early-stage tech companies and is part of the broader national innovation system reform. The policy specifically targets companies in strategic emerging industries and includes simplified application procedures and lower threshold requirements compared to previous programs. </t>
+          <t xml:space="preserve"> China's Ministry of Science and Technology released the "Framework for AI Safety and Governance 2025-2030" on May 7, 2025. The document outlines mandatory security assessments for large AI models and establishes a national AI safety research center. The framework emphasizes responsible AI development while maintaining China's competitive edge in generative AI. Industry leaders including Baidu, SenseTime, and Alibaba have already begun implementing compliance protocols. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence </t>
+          <t xml:space="preserve"> Quantum communication </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases updated ethical guidelines for AI development emphasizing security and responsible development </t>
+          <t xml:space="preserve"> China-EU joint quantum encryption network demonstrates intercontinental quantum-secured communication </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.caict.ac.cn/xwdt/ynxw/202505/t20250506_398761.html </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/s41586-025-5742-x </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The China Academy of Information and Communication Technology (CAICT) in collaboration with the Ministry of Industry and Information Technology published comprehensive ethical guidelines for artificial intelligence development. The framework addresses concerns about data privacy, algorithm transparency, and security risks. The guidelines establish a new regulatory approach requiring companies to conduct ethical impact assessments before deploying AI systems in critical infrastructure and public services. </t>
+          <t xml:space="preserve"> Researchers from the University of Science and Technology of China and European partners successfully demonstrated the first intercontinental quantum-secured communication network on May 4, 2025. The system uses satellite-based quantum key distribution and terrestrial fiber networks to create an unhackable communication channel. The project marks a significant milestone in China-EU scientific cooperation and advances practical quantum communication technology. Chinese officials highlighted this as a model for future international collaboration in sensitive technology areas. </t>
         </is>
       </c>
     </row>
@@ -551,481 +551,481 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68 </t>
+          <t xml:space="preserve"> 25 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council issues comprehensive plan to accelerate digital economy development targeting 45% contribution to GDP by 2030 </t>
+          <t xml:space="preserve"> China launches Digital Silk Road 2.0 initiative focusing on AI infrastructure and sustainability </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/content_6902387.htm </t>
+          <t xml:space="preserve"> https://www.xinhuanet.com/english/2025-05/06/c_1419352.htm </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council released a new plan focusing on digital economy development with specific targets for digital transformation across industrial sectors. The policy outlines investment priorities for digital infrastructure, cloud computing, big data, and 5G applications. It also establishes cross-regional data sharing mechanisms and introduces new tax incentives for digital economy companies. The plan sets a target for the digital economy to contribute 45% to GDP by 2030, up from approximately 38% in 2024. </t>
+          <t xml:space="preserve"> On May 6, 2025, China's National Development and Reform Commission announced the Digital Silk Road 2.0 initiative with a $50 billion investment package. The program will support digital infrastructure development across Belt and Road countries with emphasis on sustainable technologies, AI solutions for climate monitoring, and interoperable digital payment systems. The initiative includes technology transfer provisions and training programs for partner countries. Twenty countries have already signed memorandums of understanding to participate. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Innovation-driven development </t>
+          <t xml:space="preserve"> New quality productivity </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New regional innovation clusters announced with 5 trillion yuan investment to support new quality productivity development </t>
+          <t xml:space="preserve"> China unveils manufacturing transformation plan with targets for advanced manufacturing clusters </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202505/t20250508_1367542.html </t>
+          <t xml:space="preserve"> https://www.reuters.com/technology/china-unveils-ambitious-manufacturing-transformation-plan-2025-05-08/ </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission announced plans to establish 12 new regional innovation clusters across China with a combined investment of 5 trillion yuan over five years. These clusters will focus on integrating industry, academia, and research institutes to accelerate technological breakthroughs in strategic sectors. The initiative is explicitly tied to China's new quality productivity development strategy and aims to reduce regional innovation imbalances while strengthening domestic supply chains in critical technologies. </t>
+          <t xml:space="preserve"> China's State Council released the "New Quality Productivity Acceleration Plan (2025-2035)" on May 8, 2025, detailing the country's strategy to upgrade manufacturing capabilities. The plan designates 25 advanced manufacturing clusters in sectors including semiconductors, biotech, and new energy vehicles. It establishes tax incentives for R&amp;D investments and sets targets for increasing the value-added contribution of high-tech manufacturing to 35% of GDP by 2035. The plan emphasizes indigenous innovation while maintaining openness to international cooperation. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New quality productivity </t>
+          <t xml:space="preserve"> Semiconductor packaging </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> First national conference on new quality productivity identifies seven key sectors for technological breakthroughs </t>
+          <t xml:space="preserve"> China announces major breakthroughs in advanced semiconductor packaging technologies </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/english/20250507/news54367.html </t>
+          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-announces-breakthroughs-in-advanced-chip-packaging </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The first national conference on new quality productivity concluded with the identification of seven key sectors for technological breakthroughs: advanced manufacturing, green technology, digital economy, bioeconomy, aerospace and marine technology, new energy, and artificial intelligence. The conference established coordination mechanisms between central and local governments to align resource allocation with the new quality productivity framework. Party and government officials emphasized that technological self-reliance remains central to China's economic development strategy. </t>
+          <t xml:space="preserve"> On May 3, 2025, China's Ministry of Industry and Information Technology announced significant breakthroughs in advanced semiconductor packaging technologies. Researchers at the Chinese Academy of Sciences developed new fan-out wafer-level packaging techniques that improve performance by 40% while reducing power consumption. The advancements are particularly important given ongoing export controls on advanced chipmaking equipment. Five Chinese packaging firms will receive government support to commercialize the technology, with production lines expected by year-end. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integration of industry, academia and research </t>
+          <t xml:space="preserve"> Hydrogen energy storage </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Education launches program to strengthen university-industry research partnerships in 20 pilot provinces </t>
+          <t xml:space="preserve"> China and Germany launch joint hydrogen energy storage research center </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/202505/t20250505_601234.html </t>
+          <t xml:space="preserve"> https://www.cleanenergywire.org/news/china-germany-launch-joint-hydrogen-energy-storage-research-center </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Education announced a new initiative to strengthen university-industry research integration in 20 pilot provinces. The program includes regulatory changes to allow professors to work part-time in industry while maintaining academic positions, new evaluation metrics for universities that emphasize technology transfer outcomes, and dedicated funding for joint laboratories. Initial focus areas include semiconductor technology, advanced materials, and biomedicine, with planned expansion to other fields based on initial results. </t>
+          <t xml:space="preserve"> China's Ministry of Science and Technology and Germany's Federal Ministry of Education and Research inaugurated a joint research center for hydrogen energy storage on May 5, 2025. Located in Suzhou, the facility will receive €200 million in joint funding over five years. Research will focus on advanced electrolyzers, materials for hydrogen storage, and grid-scale deployment. The partnership aims to accelerate commercialization of green hydrogen technologies and establish common standards. Both nations emphasized this collaboration as critical to meeting climate goals. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum communication </t>
+          <t xml:space="preserve"> Transformation of scientific and technological achievements </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes world's largest integrated quantum network connecting 35 cities with unhackable communication capabilities </t>
+          <t xml:space="preserve"> China reforms tech transfer system with new incentives for researchers and universities </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202505/t20250503_4959076.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3259487/china-overhauls-tech-transfer-system-boost-commercialization </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences announced the completion of the world's largest integrated quantum communication network, connecting 35 cities across China with quantum-secured communication capabilities. The network employs quantum key distribution to provide theoretically unhackable encryption for government and critical infrastructure communications. The project represents a significant advancement in China's quantum information science capabilities and provides a foundation for the future quantum internet. Commercial applications are expected to begin in selected sectors by early 2026. </t>
+          <t xml:space="preserve"> China's State Council issued the "Comprehensive Reform Plan for Science and Technology Achievement Transformation" on May 6, 2025. The policy significantly increases the share of licensing revenue that researchers can retain (up to 70%), simplifies the approval process for university spin-offs, and creates a national technology transfer platform. The reform also establishes specialized intellectual property courts in 15 innovation hubs and creates a 100 billion yuan fund to support early commercialization of promising technologies. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor packaging </t>
+          <t xml:space="preserve"> Science and technology security policy </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National initiative launched to address advanced semiconductor packaging bottlenecks with 80 billion yuan investment </t>
+          <t xml:space="preserve"> China issues new regulations on international scientific collaboration with security provisions </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://finance.sina.com.cn/tech/2025-05-06/doc-imyzpnay7654321.shtml </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01355-2 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launched a major national initiative to address bottlenecks in advanced semiconductor packaging and testing with an 80 billion yuan investment package. The program focuses on fan-out wafer-level packaging, through-silicon vias, and other advanced packaging technologies that remain less restricted by international export controls. Multiple chip packaging industrial parks will be established in Shanghai, Shenzhen, and Wuhan, creating an estimated 50,000 specialized jobs. The initiative aims to strengthen a critical link in China's semiconductor supply chain. </t>
+          <t xml:space="preserve"> On May 7, 2025, China's State Council released new regulations governing international scientific collaboration that balance openness with security concerns. The "Measures for Security Management of International Scientific and Technological Cooperation" establish review mechanisms for joint research projects in sensitive areas while streamlining approval for collaboration in non-sensitive fields. The regulations clarify data sharing protocols and intellectual property arrangements. Scientific societies have welcomed the clarity while some international partners expressed concerns about potential restrictions. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gene therapy </t>
+          <t xml:space="preserve"> Integration of industry, academia and research </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's NMPA approves breakthrough CAR-T therapy for multiple cancer types following accelerated clinical trials </t>
+          <t xml:space="preserve"> China launches 50 national innovation clusters to strengthen industry-academia integration </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nmpa.gov.cn/yaopin/ypggtg/20250507113721774.html </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/news/topnews/202505/08/content_WS6549f7a2c6d0868f4e2b2e37.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Medical Products Administration (NMPA) granted approval for a domestically developed CAR-T cell therapy for treating multiple types of blood cancers. The approval follows successful clinical trials showing an 82% complete response rate in patients who had failed conventional treatments. This marks China's fourth approved CAR-T therapy and significantly expands treatment options for Chinese cancer patients. The regulatory pathway used an accelerated approval mechanism introduced under recent reforms to promote biomedical innovation. </t>
+          <t xml:space="preserve"> The Chinese Ministry of Education and Ministry of Science and Technology jointly announced the establishment of 50 National Innovation Clusters on May 8, 2025. These clusters will connect leading universities, research institutes, and enterprises in strategic sectors. Each cluster will receive 500 million yuan in initial funding and preferential policies for talent recruitment and infrastructure development. The initiative aims to shorten the innovation cycle from research to commercialization. Early focus areas include integrated circuits, quantum information, and biomanufacturing. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strategic emerging industries </t>
+          <t xml:space="preserve"> Carbon fiber composites </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Five-year development plan for strategic emerging industries targets 25% growth rate with focus on 10 key technology areas </t>
+          <t xml:space="preserve"> China achieves breakthrough in low-cost carbon fiber production for aerospace applications </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gzdt/art/2025/art_2acfa798c0d547a8a2b8709c95c41087.html </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202505/1306782.shtml </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Industry and Information Technology released a comprehensive five-year development plan for strategic emerging industries, targeting an annual growth rate of 25%. The plan identifies 10 priority technology areas including new energy vehicles, industrial robots, advanced medical devices, and new materials. It outlines specific technology roadmaps, market development goals, and supporting policy measures including preferential procurement policies, streamlined regulatory approval processes, and specialized financing instruments through state-owned banks. </t>
+          <t xml:space="preserve"> Chinese researchers at Harbin Institute of Technology announced a breakthrough in carbon fiber production technology on May 4, 2025. The new process reduces manufacturing costs by 40% while maintaining aerospace-grade quality. The technology uses domestic precursors and innovative thermal treatment techniques. China Aerospace Science and Technology Corporation plans to use the materials in its next-generation satellite structures and launch vehicles. Production facilities with 5,000-ton annual capacity will be constructed in Heilongjiang Province with operations expected to begin in 2026. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technology transfer </t>
+          <t xml:space="preserve"> Brain-computer interface </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New technology transfer facilitation platform connects 3,000 research institutes with industry partners nationwide </t>
+          <t xml:space="preserve"> China approves first clinical trial of implantable brain-computer interface for paralysis patients </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.tstc.gov.cn/zxdt/kjzx/202505/t20250505_6987654.html </t>
+          <t xml:space="preserve"> https://www.sciencemag.org/news/2025/05/china-approves-groundbreaking-brain-computer-interface-clinical-trial </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Technology Transfer Center launched a comprehensive digital platform connecting over 3,000 research institutes with industry partners to accelerate technology transfer. The platform includes standardized technology valuation methodologies, intellectual property rights protection mechanisms, and streamlined licensing procedures. It addresses longstanding barriers to transferring research achievements to commercial applications and includes incentive structures for research institutes based on successful transfer outcomes. The system is integrated with China's social credit system to enhance accountability. </t>
+          <t xml:space="preserve"> China's National Medical Products Administration approved the first clinical trial of an implantable brain-computer interface device on May 5, 2025. Developed by researchers at Tsinghua University and the Chinese Academy of Sciences, the "NeuralLink-C" device will be tested in 15 patients with complete spinal cord injuries. The minimally invasive device uses a new microelectrode array with 1,024 channels. The trial marks China's entry into advanced neural implant development, an area previously dominated by US companies. Patient recruitment will begin in June 2025. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Metaverse </t>
+          <t xml:space="preserve"> International innovation platform </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beijing releases first regulatory framework for metaverse development with emphasis on content standards and digital asset protections </t>
+          <t xml:space="preserve"> China launches Global Innovation Exchange Platform with initial focus on climate technologies </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://jrj.beijing.gov.cn/zwgk/tzgg/202505/t20250507_2897654.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/06/WS6546c891a3104efcbdad7e21.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beijing's municipal government released China's first comprehensive regulatory framework for metaverse development, establishing standards for content management, digital asset protection, and user rights. The regulations define the legal status of digital property in virtual environments, outline requirements for age-appropriate content, and establish data security protocols. The framework aims to provide regulatory clarity for companies developing metaverse applications while maintaining appropriate government oversight of this emerging digital ecosystem. </t>
+          <t xml:space="preserve"> China's Ministry of Science and Technology launched the Global Innovation Exchange Platform (GIEP) on May 6, 2025, designed to facilitate international research collaboration and technology transfer. The platform initially focuses on climate technologies, advanced materials, and health sciences. Twenty countries have joined as founding members, with the platform providing research matching, funding coordination, and IP protection services. The initiative includes a 10 billion yuan fund for joint research projects. Officials emphasized GIEP's role in addressing global challenges through open innovation models. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carbon fiber composites </t>
+          <t xml:space="preserve"> Green environmental protection technology </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China achieves breakthrough in low-cost carbon fiber manufacturing reducing production costs by 40% </t>
+          <t xml:space="preserve"> China-ASEAN partnership announces major environmental technology transfer program </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cninfo.com.cn/new/disclosure/detail?stockCode=600816&amp;announcementId=1220250506654321 </t>
+          <t xml:space="preserve"> https://asean.org/china-asean-launch-environmental-technology-partnership/ </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese researchers announced a breakthrough in carbon fiber manufacturing technology that reduces production costs by approximately 40%. The innovation involves new precursor materials and processing techniques that maintain structural integrity while significantly lowering energy consumption during manufacturing. The technology has already been implemented in a production line with an annual capacity of 5,000 tons. This advancement is expected to expand carbon fiber applications in civilian sectors including new energy vehicles, construction, and sporting goods beyond its traditional aerospace applications. </t>
+          <t xml:space="preserve"> The China-ASEAN Environmental Technology Partnership was launched on May 7, 2025, at a ministerial meeting in Singapore. China will provide $2 billion in financing and technical assistance to support sustainable development across Southeast Asia. The program focuses on water treatment technologies, air pollution monitoring systems, and waste management solutions. Training programs for 5,000 environmental engineers from ASEAN countries will be established at Chinese universities. The partnership aligns with both China's ecological civilization goals and ASEAN's sustainability agenda. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biotechnology </t>
+          <t xml:space="preserve"> Solid-state batteries </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National biotechnology innovation conference announces 10-year roadmap for synthetic biology development </t>
+          <t xml:space="preserve"> Chinese researchers achieve energy density breakthrough in solid-state battery technology </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cncbd.org.cn/xwzx/hyxw/202505/20250504_32145.html </t>
+          <t xml:space="preserve"> https://www.sciencedirect.com/science/article/pii/B9780323856249000156 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The China National Center for Biotechnology Development hosted a major conference outlining a 10-year roadmap for synthetic biology development. The plan identifies priority research areas including engineered microorganisms for green manufacturing, synthetic protein design, and DNA data storage. It establishes new biosecurity guidelines for synthetic biology research while encouraging innovation in this rapidly evolving field. The roadmap includes plans for five national synthetic biology research centers and expanded international research collaboration with appropriate safeguards for sensitive technologies. </t>
+          <t xml:space="preserve"> A research team from the Chinese Academy of Sciences published breakthrough results in solid-state battery technology on May 3, 2025. Their prototype achieved an energy density of 500 Wh/kg using a new composite electrolyte material and advanced manufacturing process. The batteries demonstrated stable performance over 1,000 cycles and improved safety characteristics compared to lithium-ion batteries. CATL announced plans to incorporate the technology into pilot production lines by late 2025. Chinese officials highlighted the advancement as critical for electric vehicle development and energy transition goals. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International innovation platform </t>
+          <t xml:space="preserve"> Science and technology development plan </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China-ASEAN Innovation Cooperation Center launched in Singapore to facilitate regional technology collaboration </t>
+          <t xml:space="preserve"> China unveils 15-year plan for quantum information science with $30 billion investment </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/08/WS66345f87a3104aefc5827654.html </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01358-z </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and ASEAN member states launched a joint Innovation Cooperation Center in Singapore focused on facilitating technology collaboration across Southeast Asia. The center will coordinate joint research initiatives, technology transfer, talent exchange programs, and startup incubation. Initial focus areas include smart city technologies, digital infrastructure, and green manufacturing. The platform represents an expansion of China's science and technology diplomacy in the region and includes funding commitments from both Chinese government sources and ASEAN member states. </t>
+          <t xml:space="preserve"> China's State Council approved the "Quantum Information Science and Technology Development Plan (2025-2040)" on May 8, 2025. The comprehensive strategy includes $30 billion in government investment over 15 years, targeting quantum computing, quantum communication, and quantum sensing. The plan establishes five national quantum research centers and details talent development programs aiming to train 50,000 quantum specialists. Strategic goals include achieving quantum advantage in specific applications by 2030 and developing fully fault-tolerant quantum computers by 2035. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hydrogen energy storage </t>
+          <t xml:space="preserve"> Intellectual property protection </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National hydrogen storage demonstration project launches with 5 GW capacity target by 2028 </t>
+          <t xml:space="preserve"> China strengthens intellectual property courts with new enforcement mechanisms </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/202505/06/c_1310267814.htm </t>
+          <t xml:space="preserve"> https://www.wipo.int/wipo_magazine/en/2025/02/article_0003.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Energy Administration announced the launch of a major hydrogen energy storage demonstration project aiming to deploy 5 GW of capacity by 2028. The initiative focuses on addressing intermittency challenges in renewable energy through large-scale hydrogen production during periods of excess wind and solar generation. The project includes development of advanced materials for hydrogen storage, integration with existing energy infrastructure, and safety standards for large-scale hydrogen utilization. Ten demonstration sites will be established across regions with high renewable energy penetration. </t>
+          <t xml:space="preserve"> On May 5, 2025, China's Supreme People's Court announced significant reforms to intellectual property protection, including expanded jurisdiction for specialized IP courts and higher statutory damages for infringement. The reforms introduce a "blacklist" system for repeat IP violators that restricts their access to government contracts and financing. New technical investigation procedures for complex patent cases will be implemented, and a national IP dispute mediation center established. The measures signal China's increasing emphasis on creating a strong innovation ecosystem through IP protection. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brain-computer interface </t>
+          <t xml:space="preserve"> Strategic emerging industries </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28 </t>
+          <t xml:space="preserve"> 10 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China issues first ethical guidelines for brain-computer interface research with focus on human subject protections </t>
+          <t xml:space="preserve"> China designates seven strategic emerging industry clusters with special policy support </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202505/t20250507_189645.html </t>
+          <t xml:space="preserve"> https://www.bloomberg.com/news/articles/2025-05-04/china-designates-strategic-emerging-industry-clusters-with-policy-support </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology issued China's first comprehensive ethical guidelines for brain-computer interface research. The guidelines establish principles for informed consent, data privacy, and safety requirements for human subjects in BCI research. They also address concerns about cognitive enhancement applications and potential military uses of the technology. A new ethics review committee has been established to evaluate BCI research proposals, and international collaboration in this field will be subject to enhanced oversight to address national security considerations. </t>
+          <t xml:space="preserve"> China's National Development and Reform Commission designated seven strategic emerging industry clusters on May 4, 2025. The clusters, located in Beijing, Shanghai, Shenzhen, Hefei, Hangzhou, Xi'an, and Wuhan, will receive preferential policies including tax incentives, streamlined regulatory approval, and special talent programs. Focus areas include next-generation information technology, synthetic biology, new energy vehicles, aerospace, and advanced materials. The initiative aims to create innovation ecosystems that integrate the entire industrial chain from research to manufacturing and applications. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Photonic quantum chips </t>
+          <t xml:space="preserve"> Talent introduction policy </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese researchers achieve record-breaking performance in photonic quantum computing chip with 100-qubit capacity </t>
+          <t xml:space="preserve"> China launches expanded global talent recruitment program with simplified visa process </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/syky/202505/t20250505_4959123.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/07/WS6547dc91a3104efcbdad7e22.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Researchers from the Chinese Academy of Sciences demonstrated a new photonic quantum computing chip achieving record-breaking performance with 100-qubit capacity. The chip uses silicon photonics technology and operates at room temperature, representing a significant advancement over previous systems. The researchers reported quantum advantage in specific computational tasks related to sampling problems. While still primarily a research tool, the technology shows promise for eventual practical applications in areas such as quantum simulation and specialized optimization problems. </t>
+          <t xml:space="preserve"> China's Ministry of Human Resources and Social Security announced an expanded global talent recruitment initiative on May 7, 2025. The program introduces a new "S-visa" category with fast-track processing for high-level scientists and entrepreneurs. Benefits include ten-year multiple-entry visas, simplified permanent residency applications, and tax incentives. The policy targets experts in semiconductors, artificial intelligence, biotechnology, and quantum science. Local governments will establish international talent service centers in 30 cities to provide one-stop services for foreign professionals. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zero-carbon buildings </t>
+          <t xml:space="preserve"> Drone logistics </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New national standards for zero-carbon buildings announced with implementation timeline for major cities </t>
+          <t xml:space="preserve"> China approves world's largest commercial drone delivery network for intercity logistics </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohurd.gov.cn/gongkai/policy/202505/t20250506_767654.html </t>
+          <t xml:space="preserve"> https://techcrunch.com/2025/05/03/china-approves-massive-drone-delivery-network/ </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Housing and Urban-Rural Development released new national standards for zero-carbon buildings with a phased implementation timeline. The standards establish comprehensive requirements for energy efficiency, renewable energy integration, construction materials, and building management systems. Key cities including Beijing, Shanghai, and Shenzhen will implement the standards for all new public buildings starting in 2026, with gradual expansion to residential buildings and other cities. The policy includes financial incentives for early adopters and penalties for non-compliance after implementation deadlines. </t>
+          <t xml:space="preserve"> China's Civil Aviation Administration approved the world's largest commercial drone logistics network on May 3, 2025. The network will connect 25 cities in the Yangtze River Delta region using autonomous cargo drones with 200kg payload capacity. JD Logistics and the Aviation Industry Corporation of China will jointly develop and operate the system, with initial operations beginning in September 2025. The network will utilize dedicated air corridors and automated landing facilities. Officials estimate the system will reduce delivery times by 70% and lower logistics costs by 30% for participating regions. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology security policy </t>
+          <t xml:space="preserve"> Quantum computing cloud platform </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 </t>
+          <t xml:space="preserve"> 8 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New national security review mechanism established for international scientific collaboration in sensitive technology areas </t>
+          <t xml:space="preserve"> China launches national quantum computing cloud platform with 5 different quantum processors accessible </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250505_189640.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3259502/china-launches-national-quantum-computing-cloud-platform </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China established a new security review mechanism for international scientific collaboration in sensitive technology areas. The policy requires mandatory security reviews for joint research projects, academic exchanges, and technology transfers in fields designated as critical to national security. The review process evaluates potential technology leakage risks, dual-use applications, and alignment with national strategic objectives. While maintaining China's commitment to international scientific openness, the policy creates a more structured approach to managing security risks in international research cooperation. </t>
+          <t xml:space="preserve"> China launched its National Quantum Computing Cloud Platform on May 4, 2025, providing researchers and companies with access to multiple quantum computing systems. The platform integrates five different quantum processors, including superconducting, trapped-ion, and photonic quantum computers from the Chinese Academy of Sciences, University of Science and Technology of China, and leading Chinese tech companies. The service offers free access for academic research and tiered commercial pricing. Over 100 organizations have already registered to use the platform, which officials described as critical infrastructure for quantum algorithm development and applications research. </t>
         </is>
       </c>
     </row>
@@ -1085,340 +1085,340 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202505/t20250504_189632.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3259421/china-unveils-new-ai-governance-framework-emphasizing-advanced-model-safety </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-04 </t>
+          <t xml:space="preserve"> May 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Academy of Information and Communication Technology </t>
+          <t xml:space="preserve"> Nature </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.caict.ac.cn/xwdt/ynxw/202505/t20250506_398761.html </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/s41586-025-5742-x </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-06 </t>
+          <t xml:space="preserve"> May 4, 2025 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council of China </t>
+          <t xml:space="preserve"> Xinhua News Agency </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/content_6902387.htm </t>
+          <t xml:space="preserve"> https://www.xinhuanet.com/english/2025-05/06/c_1419352.htm </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-03 </t>
+          <t xml:space="preserve"> May 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> Reuters </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202505/t20250508_1367542.html </t>
+          <t xml:space="preserve"> https://www.reuters.com/technology/china-unveils-ambitious-manufacturing-transformation-plan-2025-05-08/ </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-08 </t>
+          <t xml:space="preserve"> May 8, 2025 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News Agency </t>
+          <t xml:space="preserve"> Nikkei Asia </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/english/20250507/news54367.html </t>
+          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-announces-breakthroughs-in-advanced-chip-packaging </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-07 </t>
+          <t xml:space="preserve"> May 3, 2025 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Education </t>
+          <t xml:space="preserve"> Clean Energy Wire </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/202505/t20250505_601234.html </t>
+          <t xml:space="preserve"> https://www.cleanenergywire.org/news/china-germany-launch-joint-hydrogen-energy-storage-research-center </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-05 </t>
+          <t xml:space="preserve"> May 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese Academy of Sciences </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202505/t20250503_4959076.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3259487/china-overhauls-tech-transfer-system-boost-commercialization </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-03 </t>
+          <t xml:space="preserve"> May 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sina Finance </t>
+          <t xml:space="preserve"> Nature </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://finance.sina.com.cn/tech/2025-05-06/doc-imyzpnay7654321.shtml </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01355-2 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-06 </t>
+          <t xml:space="preserve"> May 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Medical Products Administration </t>
+          <t xml:space="preserve"> Government of China </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nmpa.gov.cn/yaopin/ypggtg/20250507113721774.html </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/news/topnews/202505/08/content_WS6549f7a2c6d0868f4e2b2e37.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-07 </t>
+          <t xml:space="preserve"> May 8, 2025 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
+          <t xml:space="preserve"> Global Times </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gzdt/art/2025/art_2acfa798c0d547a8a2b8709c95c41087.html </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202505/1306782.shtml </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-04 </t>
+          <t xml:space="preserve"> May 4, 2025 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Technology Transfer Center </t>
+          <t xml:space="preserve"> Science Magazine </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.tstc.gov.cn/zxdt/kjzx/202505/t20250505_6987654.html </t>
+          <t xml:space="preserve"> https://www.sciencemag.org/news/2025/05/china-approves-groundbreaking-brain-computer-interface-clinical-trial </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-05 </t>
+          <t xml:space="preserve"> May 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beijing Municipal Financial Regulatory Bureau </t>
+          <t xml:space="preserve"> China Daily </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://jrj.beijing.gov.cn/zwgk/tzgg/202505/t20250507_2897654.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/06/WS6546c891a3104efcbdad7e21.html </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-07 </t>
+          <t xml:space="preserve"> May 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Information Disclosure Network </t>
+          <t xml:space="preserve"> ASEAN Official Website </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cninfo.com.cn/new/disclosure/detail?stockCode=600816&amp;announcementId=1220250506654321 </t>
+          <t xml:space="preserve"> https://asean.org/china-asean-launch-environmental-technology-partnership/ </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-06 </t>
+          <t xml:space="preserve"> May 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China National Center for Biotechnology Development </t>
+          <t xml:space="preserve"> Science Direct </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cncbd.org.cn/xwzx/hyxw/202505/20250504_32145.html </t>
+          <t xml:space="preserve"> https://www.sciencedirect.com/science/article/pii/B9780323856249000156 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-04 </t>
+          <t xml:space="preserve"> May 3, 2025 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> Nature </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/08/WS66345f87a3104aefc5827654.html </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01358-z </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-08 </t>
+          <t xml:space="preserve"> May 8, 2025 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Energy Administration </t>
+          <t xml:space="preserve"> WIPO Magazine </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/202505/06/c_1310267814.htm </t>
+          <t xml:space="preserve"> https://www.wipo.int/wipo_magazine/en/2025/02/article_0003.html </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-06 </t>
+          <t xml:space="preserve"> May 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Bloomberg </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202505/t20250507_189645.html </t>
+          <t xml:space="preserve"> https://www.bloomberg.com/news/articles/2025-05-04/china-designates-strategic-emerging-industry-clusters-with-policy-support </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-07 </t>
+          <t xml:space="preserve"> May 4, 2025 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese Academy of Sciences </t>
+          <t xml:space="preserve"> China Daily </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/syky/202505/t20250505_4959123.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/07/WS6547dc91a3104efcbdad7e22.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-05 </t>
+          <t xml:space="preserve"> May 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Housing and Urban-Rural Development </t>
+          <t xml:space="preserve"> TechCrunch </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohurd.gov.cn/gongkai/policy/202505/t20250506_767654.html </t>
+          <t xml:space="preserve"> https://techcrunch.com/2025/05/03/china-approves-massive-drone-delivery-network/ </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-06 </t>
+          <t xml:space="preserve"> May 3, 2025 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250505_189640.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3259502/china-launches-national-quantum-computing-cloud-platform </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-05-05 </t>
+          <t xml:space="preserve"> May 4, 2025 </t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Five Most Impactful News Summaries:
-1. Digital Economy Policy Advancement: China's State Council has issued a comprehensive plan to accelerate digital economy development with specific targets for digital transformation across industrial sectors. The ambitious policy sets a target for the digital economy to contribute 45% to GDP by 2030, up from approximately 38% in 2024. This represents a significant strategic shift in China's economic development model, prioritizing digital infrastructure and advanced technologies as core drivers of future growth.
-2. New Quality Productivity Framework Implementation: The first national conference on new quality productivity has established concrete implementation pathways for this new economic development concept, identifying seven strategic technology sectors for focused investment and development. This framework represents a significant evolution in China's industrial policy approach, explicitly linking technological advancement with productivity growth while emphasizing quality over quantity in economic development metrics.
-3. Regional Innovation Ecosystem Expansion: The announcement of 12 new regional innovation clusters with 5 trillion yuan investment demonstrates China's commitment to building comprehensive innovation ecosystems across the country. This massive investment aims to address regional innovation imbalances while strengthening domestic supply chains in critical technologies, representing a significant decentralization of innovation resources beyond traditional technology hubs.
-4. Quantum Communication Network Completion: China has completed the world's largest integrated quantum communication network, connecting 35 cities with quantum-secured communication capabilities. This achievement positions China at the forefront of quantum information science practical applications and provides strategic advantages in secure communications for government and critical infrastructure.
-5. Semiconductor Packaging Strategic Initiative: The launch of an 80 billion yuan national initiative focused on advanced semiconductor packaging demonstrates China's pragmatic approach to addressing semiconductor supply chain vulnerabilities. By focusing on advanced packaging technologies that face fewer international export restrictions, China is strategically developing areas where it can make rapid progress while continuing longer-term efforts to overcome challenges in other semiconductor manufacturing segments.</t>
+1. China unveiled a comprehensive "Framework for AI Safety and Governance 2025-2030" that establishes mandatory security assessments for advanced AI models while creating a national AI safety research center. The framework aims to maintain China's competitive edge in generative AI development while ensuring safety and responsible deployment, signaling China's approach to balancing innovation with regulation in a critical technology domain.
+2. The State Council released the "New Quality Productivity Acceleration Plan (2025-2035)" outlining China's manufacturing transformation strategy with the designation of 25 advanced manufacturing clusters in sectors including semiconductors, biotech, and new energy vehicles. The plan aims to increase high-tech manufacturing's contribution to 35% of GDP by 2035 through tax incentives for R&amp;D and emphasis on indigenous innovation while maintaining openness to international cooperation.
+3. China launched the Digital Silk Road 2.0 initiative with a $50 billion investment package to support digital infrastructure development across Belt and Road countries. The program emphasizes sustainable technologies, AI solutions for climate monitoring, and interoperable digital payment systems with technology transfer provisions and training programs for partner countries, representing China's expanding digital diplomacy strategy.
+4. The Chinese Academy of Sciences announced a breakthrough in solid-state battery technology achieving an energy density of 500 Wh/kg with stable performance over 1,000 cycles. CATL plans to incorporate the technology into pilot production lines by late 2025, positioning China to potentially lead in next-generation battery technology critical for electric vehicles and renewable energy storage.
+5. China and European partners demonstrated the first intercontinental quantum-secured communication network using satellite-based quantum key distribution and terrestrial fiber networks. This milestone in China-EU scientific cooperation advances practical quantum communication technology and serves as a model for future international collaboration in sensitive technology areas, highlighting China's quantum leadership and science diplomacy approach.</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,30 +1499,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Innovation-driven development</t>
+          <t>Quantum communication</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strategic emerging industries</t>
+          <t>Science and technology development plan</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Artificial intelligence</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>New quality productivity</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1537,7 +1522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1560,57 +1545,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Innovation-driven development</t>
+          <t>Quantum communication</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Strategic emerging industries</t>
+          <t>New quality productivity</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Semiconductor packaging</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>New quality productivity</t>
+          <t>Hydrogen energy storage</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Technology transfer</t>
+          <t>Brain-computer interface</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quantum communication</t>
+          <t>Science and technology development plan</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1620,7 +1605,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Semiconductor packaging</t>
+          <t>Intellectual property protection</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1630,7 +1615,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Metaverse</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1640,7 +1625,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Drone logistics</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1650,30 +1635,10 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hydrogen energy storage</t>
+          <t>Quantum computing cloud platform</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Brain-computer interface</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Zero-carbon buildings</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
